--- a/OnBoard/output/trust/catch/Catch_Trust_12.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_12.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>4.075</v>
       </c>
       <c r="H8">
-        <v>502</v>
+        <v>50</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1187,10 +1187,10 @@
         <v>0.002</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I20">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="21">
@@ -1228,10 +1228,10 @@
         <v>0.002</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I21">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="22">
@@ -1269,10 +1269,10 @@
         <v>0.001</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="23">
@@ -1310,10 +1310,10 @@
         <v>0.06</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I23">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="24">
@@ -1351,10 +1351,10 @@
         <v>0.001</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I24">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="25">
@@ -1392,10 +1392,10 @@
         <v>0.21</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="I25">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="26">
@@ -1433,10 +1433,10 @@
         <v>0.001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I26">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="27">
@@ -1474,10 +1474,10 @@
         <v>0.129</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="I27">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="28">
@@ -1515,10 +1515,10 @@
         <v>0.042</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I28">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="29">
@@ -1556,10 +1556,10 @@
         <v>0.001</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I29">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="31">
@@ -1638,10 +1638,10 @@
         <v>0.019</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="32">
@@ -1679,10 +1679,10 @@
         <v>0.002</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I32">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="33">
@@ -1720,10 +1720,10 @@
         <v>0.001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="34">
@@ -1761,10 +1761,10 @@
         <v>0.001</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I34">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="35">
@@ -1802,10 +1802,10 @@
         <v>0.104</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="36">
@@ -1843,10 +1843,10 @@
         <v>0.002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="37">
@@ -1884,10 +1884,10 @@
         <v>0.001</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="38">
@@ -1925,10 +1925,10 @@
         <v>0.003</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="39">
@@ -1966,10 +1966,10 @@
         <v>0.003</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="40">
@@ -2007,10 +2007,10 @@
         <v>0.001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I40">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
     <row r="41">
@@ -2048,10 +2048,10 @@
         <v>0.063</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
-        <v>14.95096774193548</v>
+        <v>26.53967741935484</v>
       </c>
     </row>
   </sheetData>
